--- a/Final Design Project/Final Project Data.xlsx
+++ b/Final Design Project/Final Project Data.xlsx
@@ -361,8 +361,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -464,7 +470,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="95">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -509,6 +515,9 @@
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -553,6 +562,9 @@
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -884,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:I33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
